--- a/Assets/Tables/DT_Frag.xlsx
+++ b/Assets/Tables/DT_Frag.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Gimicks\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E07572-0C45-4BED-95CC-7B31C20B8DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B133456-C4C1-4E3A-BBE7-29B047C9433B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -81,6 +81,25 @@
   </si>
   <si>
     <t>Flag_TestGimick_CanTouch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_get</t>
+  </si>
+  <si>
+    <t>KL_CassetteTape_002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_005</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -162,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -170,6 +189,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -450,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -590,6 +610,46 @@
         <v>1</v>
       </c>
     </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Tables/DT_Frag.xlsx
+++ b/Assets/Tables/DT_Frag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B133456-C4C1-4E3A-BBE7-29B047C9433B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD3B5AD-9974-462B-B3B4-3A0C8B5D8C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -650,6 +650,12 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Tables/DT_Frag.xlsx
+++ b/Assets/Tables/DT_Frag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD3B5AD-9974-462B-B3B4-3A0C8B5D8C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4EA876-94DA-49C5-9D1C-0AEB6DE2EBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -101,13 +101,19 @@
   <si>
     <t>KL_CassetteTape_005</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_DimpleKey_Selected</t>
+  </si>
+  <si>
+    <t>Flag_DimpleKey_Obtained</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +130,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -181,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -190,6 +202,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -473,7 +486,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -651,10 +664,20 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3"/>
+      <c r="A23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Tables/DT_Frag.xlsx
+++ b/Assets/Tables/DT_Frag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4EA876-94DA-49C5-9D1C-0AEB6DE2EBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D28E64B-07A3-4FDE-9123-E278B4F9ADE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -87,26 +87,67 @@
     <t>KL_CassetteTape_get</t>
   </si>
   <si>
-    <t>KL_CassetteTape_002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KL_CassetteTape_003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KL_CassetteTape_004</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KL_CassetteTape_005</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Flag_DimpleKey_Selected</t>
   </si>
   <si>
     <t>Flag_DimpleKey_Obtained</t>
+  </si>
+  <si>
+    <t>Flag_CloudySolution_Obtained</t>
+  </si>
+  <si>
+    <t>Flag_BlueSolution_Obtained</t>
+  </si>
+  <si>
+    <t>Flag_RotorSet</t>
+  </si>
+  <si>
+    <t>Flag_Rotor_4h_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_Rotor_6h_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_Rotor_8h_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_TestTube_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_002_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_002_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_003_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_003_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_004_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_004_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_005_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_005_Selected</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -155,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -189,11 +230,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -203,6 +274,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -483,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -553,7 +630,7 @@
     </row>
     <row r="8" spans="1:2" ht="19.5" thickBot="1">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
@@ -569,7 +646,7 @@
     </row>
     <row r="10" spans="1:2" ht="19.5" thickBot="1">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -577,7 +654,7 @@
     </row>
     <row r="11" spans="1:2" ht="19.5" thickBot="1">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -585,7 +662,7 @@
     </row>
     <row r="12" spans="1:2" ht="19.5" thickBot="1">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
@@ -593,55 +670,55 @@
     </row>
     <row r="13" spans="1:2" ht="19.5" thickBot="1">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
+    <row r="14" spans="1:2" ht="19.5" thickBot="1">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
+    <row r="15" spans="1:2" ht="19.5" thickBot="1">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
+    <row r="16" spans="1:2" ht="19.5" thickBot="1">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
-        <v>17</v>
+      <c r="A17" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>18</v>
+      <c r="A18" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
-        <v>19</v>
+      <c r="A19" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -649,7 +726,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -657,7 +734,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -665,17 +742,105 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="19.5" thickBot="1">
+      <c r="A30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="19.5" thickBot="1">
+      <c r="A31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="19.5" thickBot="1">
+      <c r="A32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="b">
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Tables/DT_Frag.xlsx
+++ b/Assets/Tables/DT_Frag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D28E64B-07A3-4FDE-9123-E278B4F9ADE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F1ABF0-A7D5-4A00-BAA8-D64E66D98E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -53,68 +53,62 @@
     <t>Flag_Stretcher_Collided</t>
   </si>
   <si>
+    <t>Flag_Rotor_4h_Obtained</t>
+  </si>
+  <si>
+    <t>Flag_Rotor_6h_Obtained</t>
+  </si>
+  <si>
+    <t>Flag_Rotor_8h_Obtained</t>
+  </si>
+  <si>
+    <t>Flag_SeparatedTestTube_Obtained</t>
+  </si>
+  <si>
+    <t>Flag_TipSet_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_TestGimick_UpFrag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_TestGimick_DownFrag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_TestGimick_CanTouch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_get</t>
+  </si>
+  <si>
+    <t>Flag_DimpleKey_Selected</t>
+  </si>
+  <si>
+    <t>Flag_DimpleKey_Obtained</t>
+  </si>
+  <si>
+    <t>Flag_CloudySolution_Obtained</t>
+  </si>
+  <si>
+    <t>Flag_BlueSolution_Obtained</t>
+  </si>
+  <si>
+    <t>Flag_Rotor_4h_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_Rotor_6h_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_Rotor_8h_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Flag_TestTube_Obtained</t>
-  </si>
-  <si>
-    <t>Flag_Rotor_4h_Obtained</t>
-  </si>
-  <si>
-    <t>Flag_Rotor_6h_Obtained</t>
-  </si>
-  <si>
-    <t>Flag_Rotor_8h_Obtained</t>
-  </si>
-  <si>
-    <t>Flag_SeparatedTestTube_Obtained</t>
-  </si>
-  <si>
-    <t>Flag_TipSet_Obtained</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Flag_TestGimick_UpFrag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Flag_TestGimick_DownFrag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Flag_TestGimick_CanTouch</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KL_CassetteTape_get</t>
-  </si>
-  <si>
-    <t>Flag_DimpleKey_Selected</t>
-  </si>
-  <si>
-    <t>Flag_DimpleKey_Obtained</t>
-  </si>
-  <si>
-    <t>Flag_CloudySolution_Obtained</t>
-  </si>
-  <si>
-    <t>Flag_BlueSolution_Obtained</t>
-  </si>
-  <si>
-    <t>Flag_RotorSet</t>
-  </si>
-  <si>
-    <t>Flag_Rotor_4h_Selected</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Flag_Rotor_6h_Selected</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Flag_Rotor_8h_Selected</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Flag_TestTube_Obtained</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -147,6 +141,22 @@
   </si>
   <si>
     <t>KL_CassetteTape_005_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_Rotor_4h_Set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_Rotor_6h_Set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_Rotor_8h_Set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_TestTube_Selected</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -560,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -630,7 +640,7 @@
     </row>
     <row r="8" spans="1:2" ht="19.5" thickBot="1">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
@@ -638,7 +648,7 @@
     </row>
     <row r="9" spans="1:2" ht="19.5" thickBot="1">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
@@ -646,7 +656,7 @@
     </row>
     <row r="10" spans="1:2" ht="19.5" thickBot="1">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -654,7 +664,7 @@
     </row>
     <row r="11" spans="1:2" ht="19.5" thickBot="1">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -662,7 +672,7 @@
     </row>
     <row r="12" spans="1:2" ht="19.5" thickBot="1">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
@@ -670,7 +680,7 @@
     </row>
     <row r="13" spans="1:2" ht="19.5" thickBot="1">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
@@ -678,7 +688,7 @@
     </row>
     <row r="14" spans="1:2" ht="19.5" thickBot="1">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -686,7 +696,7 @@
     </row>
     <row r="15" spans="1:2" ht="19.5" thickBot="1">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -694,7 +704,7 @@
     </row>
     <row r="16" spans="1:2" ht="19.5" thickBot="1">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -702,7 +712,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -710,7 +720,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -718,7 +728,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -726,7 +736,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -734,7 +744,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -742,7 +752,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -750,7 +760,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -758,7 +768,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -766,7 +776,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -774,7 +784,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -782,7 +792,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -790,7 +800,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -798,7 +808,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -806,7 +816,7 @@
     </row>
     <row r="30" spans="1:2" ht="19.5" thickBot="1">
       <c r="A30" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -814,7 +824,7 @@
     </row>
     <row r="31" spans="1:2" ht="19.5" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -822,7 +832,7 @@
     </row>
     <row r="32" spans="1:2" ht="19.5" thickBot="1">
       <c r="A32" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -830,7 +840,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -838,9 +848,33 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Tables/DT_Frag.xlsx
+++ b/Assets/Tables/DT_Frag.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F1ABF0-A7D5-4A00-BAA8-D64E66D98E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D8A73B-979E-47C6-ADE9-9CB739BF54DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -157,6 +157,14 @@
   </si>
   <si>
     <t>Flag_TestTube_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_RedSolution_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_RedSolution_Selected</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -570,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -878,6 +886,22 @@
         <v>0</v>
       </c>
     </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Tables/DT_Frag.xlsx
+++ b/Assets/Tables/DT_Frag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D8A73B-979E-47C6-ADE9-9CB739BF54DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7A77C9-3466-40D7-8B54-106E2D5D8EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -56,115 +56,132 @@
     <t>Flag_Rotor_4h_Obtained</t>
   </si>
   <si>
+    <t>Flag_Rotor_8h_Obtained</t>
+  </si>
+  <si>
+    <t>Flag_SeparatedTestTube_Obtained</t>
+  </si>
+  <si>
+    <t>Flag_TipSet_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_TestGimick_UpFrag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_TestGimick_DownFrag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_TestGimick_CanTouch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_get</t>
+  </si>
+  <si>
+    <t>Flag_DimpleKey_Selected</t>
+  </si>
+  <si>
+    <t>Flag_DimpleKey_Obtained</t>
+  </si>
+  <si>
+    <t>Flag_CloudySolution_Obtained</t>
+  </si>
+  <si>
+    <t>Flag_BlueSolution_Obtained</t>
+  </si>
+  <si>
+    <t>Flag_Rotor_4h_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_Rotor_6h_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_Rotor_8h_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_TestTube_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_002_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_002_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_003_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_003_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_004_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_004_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_005_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_005_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_Rotor_4h_Set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_Rotor_6h_Set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_Rotor_8h_Set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_TestTube_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_RedSolution_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_RedSolution_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_TestTube_Set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_BlueCloudySolution_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_BlueCloudySolution_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_BlueSolution_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Flag_Rotor_6h_Obtained</t>
-  </si>
-  <si>
-    <t>Flag_Rotor_8h_Obtained</t>
-  </si>
-  <si>
-    <t>Flag_SeparatedTestTube_Obtained</t>
-  </si>
-  <si>
-    <t>Flag_TipSet_Obtained</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Flag_TestGimick_UpFrag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Flag_TestGimick_DownFrag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Flag_TestGimick_CanTouch</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KL_CassetteTape_get</t>
-  </si>
-  <si>
-    <t>Flag_DimpleKey_Selected</t>
-  </si>
-  <si>
-    <t>Flag_DimpleKey_Obtained</t>
-  </si>
-  <si>
-    <t>Flag_CloudySolution_Obtained</t>
-  </si>
-  <si>
-    <t>Flag_BlueSolution_Obtained</t>
-  </si>
-  <si>
-    <t>Flag_Rotor_4h_Selected</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Flag_Rotor_6h_Selected</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Flag_Rotor_8h_Selected</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Flag_TestTube_Obtained</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KL_CassetteTape_002_Obtained</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KL_CassetteTape_002_Selected</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KL_CassetteTape_003_Obtained</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KL_CassetteTape_003_Selected</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KL_CassetteTape_004_Obtained</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KL_CassetteTape_004_Selected</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KL_CassetteTape_005_Obtained</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KL_CassetteTape_005_Selected</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Flag_Rotor_4h_Set</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Flag_Rotor_6h_Set</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Flag_Rotor_8h_Set</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Flag_TestTube_Selected</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Flag_RedSolution_Obtained</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Flag_RedSolution_Selected</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -214,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -263,26 +280,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -293,9 +295,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -578,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -648,7 +647,7 @@
     </row>
     <row r="8" spans="1:2" ht="19.5" thickBot="1">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
@@ -664,7 +663,7 @@
     </row>
     <row r="10" spans="1:2" ht="19.5" thickBot="1">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -672,7 +671,7 @@
     </row>
     <row r="11" spans="1:2" ht="19.5" thickBot="1">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -680,7 +679,7 @@
     </row>
     <row r="12" spans="1:2" ht="19.5" thickBot="1">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
@@ -688,7 +687,7 @@
     </row>
     <row r="13" spans="1:2" ht="19.5" thickBot="1">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
@@ -696,7 +695,7 @@
     </row>
     <row r="14" spans="1:2" ht="19.5" thickBot="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -704,23 +703,23 @@
     </row>
     <row r="15" spans="1:2" ht="19.5" thickBot="1">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="19.5" thickBot="1">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -728,7 +727,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -736,7 +735,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -744,7 +743,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -752,7 +751,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -760,7 +759,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -768,7 +767,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -776,7 +775,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -784,7 +783,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -792,7 +791,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -800,7 +799,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -808,7 +807,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -816,7 +815,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -824,7 +823,7 @@
     </row>
     <row r="30" spans="1:2" ht="19.5" thickBot="1">
       <c r="A30" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -832,15 +831,15 @@
     </row>
     <row r="31" spans="1:2" ht="19.5" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="19.5" thickBot="1">
-      <c r="A32" s="6" t="s">
-        <v>20</v>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -864,7 +863,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -872,7 +871,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
@@ -880,7 +879,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" t="b">
         <v>0</v>
@@ -888,7 +887,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="b">
         <v>0</v>
@@ -896,14 +895,47 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Tables/DT_Frag.xlsx
+++ b/Assets/Tables/DT_Frag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7A77C9-3466-40D7-8B54-106E2D5D8EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EE8C12-6632-4350-8AE5-5088A19F6B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -182,6 +182,22 @@
   </si>
   <si>
     <t>Flag_Rotor_6h_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_002_Listening</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_003_Listening</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_004_Listening</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_005_Listening</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -577,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -767,7 +783,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -775,7 +791,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -783,7 +799,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -791,7 +807,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -799,7 +815,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -807,7 +823,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -815,23 +831,23 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="19.5" thickBot="1">
-      <c r="A30" s="4" t="s">
-        <v>16</v>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="19.5" thickBot="1">
-      <c r="A31" s="5" t="s">
-        <v>18</v>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -839,7 +855,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -847,23 +863,23 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="3" t="s">
-        <v>34</v>
+    <row r="34" spans="1:2" ht="19.5" thickBot="1">
+      <c r="A34" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="3" t="s">
-        <v>23</v>
+    <row r="35" spans="1:2" ht="19.5" thickBot="1">
+      <c r="A35" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -871,7 +887,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
@@ -879,7 +895,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B37" t="b">
         <v>0</v>
@@ -887,7 +903,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B38" t="b">
         <v>0</v>
@@ -895,41 +911,73 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="4" t="s">
+      <c r="B43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="4" t="s">
+      <c r="B44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="4" t="s">
+      <c r="B45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="4" t="s">
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B43" t="b">
+      <c r="B47" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Tables/DT_Frag.xlsx
+++ b/Assets/Tables/DT_Frag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EE8C12-6632-4350-8AE5-5088A19F6B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A56A45C-9E2A-4A26-BC31-DF9AA2C6B309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -198,6 +198,49 @@
   </si>
   <si>
     <t>KL_CassetteTape_005_Listening</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_002_Listened</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_003_Listened</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KL_CassetteTape_005_Listened</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_ReagentBottle_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_TipHolder_Obtained</t>
+  </si>
+  <si>
+    <t>Flag_TipHolder_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_ReagentBottle_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_PurpleSolution_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_PurpleClowdySolution_Selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_PurpleSolution_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_PurpleClowdySolution_Obtained</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -205,7 +248,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +271,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -300,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -313,6 +362,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -593,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -791,7 +841,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -799,7 +849,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -807,7 +857,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -815,7 +865,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -823,7 +873,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -831,7 +881,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -839,7 +889,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -847,7 +897,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -855,7 +905,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -863,23 +913,23 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="19.5" thickBot="1">
-      <c r="A34" s="4" t="s">
-        <v>16</v>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="19.5" thickBot="1">
-      <c r="A35" s="5" t="s">
-        <v>18</v>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -887,7 +937,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
@@ -895,23 +945,23 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="3" t="s">
-        <v>34</v>
+    <row r="38" spans="1:2" ht="19.5" thickBot="1">
+      <c r="A38" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="3" t="s">
-        <v>23</v>
+    <row r="39" spans="1:2" ht="19.5" thickBot="1">
+      <c r="A39" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B39" t="b">
         <v>0</v>
@@ -919,7 +969,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B40" t="b">
         <v>0</v>
@@ -927,7 +977,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B41" t="b">
         <v>0</v>
@@ -935,7 +985,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B42" t="b">
         <v>0</v>
@@ -943,41 +993,137 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="4" t="s">
+      <c r="B47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="4" t="s">
+      <c r="B48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="4" t="s">
+      <c r="B49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="4" t="s">
+      <c r="B50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B47" t="b">
+      <c r="B51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Tables/DT_Frag.xlsx
+++ b/Assets/Tables/DT_Frag.xlsx
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Flag_Stretcher_Collided</t>
   </si>
   <si>
-    <t xml:space="preserve">Flag_CasetteTape_Obtained</t>
+    <t xml:space="preserve">Flag_CassetteTape_Obtained</t>
   </si>
   <si>
     <t xml:space="preserve">Flag_CassetteTape_3_Obtained</t>
@@ -257,24 +257,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -469,485 +473,473 @@
   </sheetPr>
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="b">
+      <c r="B2" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="b">
+      <c r="B3" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="b">
+      <c r="B4" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="b">
+      <c r="B5" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="b">
+      <c r="B6" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="b">
+      <c r="B7" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="b">
+      <c r="B8" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="b">
+      <c r="B9" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="b">
+      <c r="B10" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="b">
+      <c r="B11" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="b">
+      <c r="B12" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2" t="b">
+      <c r="B13" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2" t="b">
+      <c r="B14" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="b">
+      <c r="B15" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2" t="b">
+      <c r="B16" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2" t="b">
+      <c r="B17" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2" t="b">
+      <c r="B18" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2" t="b">
+      <c r="B19" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2" t="b">
+      <c r="B20" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2" t="b">
+      <c r="B21" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2" t="b">
+      <c r="B22" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="2" t="b">
+      <c r="B23" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2" t="b">
+      <c r="B24" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2" t="b">
+      <c r="B25" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="2" t="b">
+      <c r="B26" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="2" t="b">
+      <c r="B27" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="2" t="b">
+      <c r="B28" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="2" t="b">
+      <c r="B29" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B32" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="2" t="n">
+      <c r="B33" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B34" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="2" t="n">
+      <c r="B36" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="2" t="n">
+      <c r="B37" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="2" t="n">
+      <c r="B38" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="2" t="n">
+      <c r="B39" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="2" t="n">
+      <c r="B40" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="2" t="n">
+      <c r="B41" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B42" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="2" t="n">
+      <c r="B43" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="2" t="n">
+      <c r="B44" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="2" t="n">
+      <c r="B45" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="2" t="n">
+      <c r="B46" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="2" t="n">
+      <c r="B47" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3"/>
-      <c r="B50" s="2"/>
+      <c r="A50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4"/>
-      <c r="B52" s="2"/>
+      <c r="A52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4"/>
-      <c r="B54" s="2"/>
+      <c r="A54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4"/>
-      <c r="B56" s="2"/>
+      <c r="A56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4"/>
-      <c r="B57" s="2"/>
+      <c r="A57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4"/>
-      <c r="B58" s="2"/>
+      <c r="A58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4"/>
-      <c r="B59" s="2"/>
+      <c r="A59" s="5"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Assets/Tables/DT_Frag.xlsx
+++ b/Assets/Tables/DT_Frag.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -127,13 +127,117 @@
     <t xml:space="preserve">Flag_Rotor_8h_Selected</t>
   </si>
   <si>
-    <t xml:space="preserve">Flag_Rotor_4h_Set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flag_Rotor_6h_Set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flag_Rotor_8h_Set</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Flag_Rotor_4h_Set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">_first</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Flag_Rotor_6h_Set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">_first</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Flag_Rotor_8h_Set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">_first</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag_Rotor_4h_Set_redo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Flag_Rotor_6h_Set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">_redo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Flag_Rotor_8h_Set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">_redo</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Flag_BlueSolution_Obtained</t>
@@ -174,7 +278,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +302,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
@@ -274,11 +385,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -471,10 +582,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -495,7 +606,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="b">
+      <c r="B2" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -504,7 +615,7 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="b">
+      <c r="B3" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -513,7 +624,7 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="b">
+      <c r="B4" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -522,7 +633,7 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="b">
+      <c r="B5" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -531,7 +642,7 @@
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="b">
+      <c r="B6" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -540,7 +651,7 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="b">
+      <c r="B7" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -549,7 +660,7 @@
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="b">
+      <c r="B8" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -558,7 +669,7 @@
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="b">
+      <c r="B9" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -567,7 +678,7 @@
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="b">
+      <c r="B10" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -576,7 +687,7 @@
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="b">
+      <c r="B11" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -585,7 +696,7 @@
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="b">
+      <c r="B12" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -594,7 +705,7 @@
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="b">
+      <c r="B13" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -603,7 +714,7 @@
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="b">
+      <c r="B14" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -675,7 +786,7 @@
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="3" t="b">
+      <c r="B22" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -684,7 +795,7 @@
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="3" t="b">
+      <c r="B23" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -693,7 +804,7 @@
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="3" t="b">
+      <c r="B24" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -702,7 +813,7 @@
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -711,7 +822,7 @@
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -720,7 +831,7 @@
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -729,7 +840,7 @@
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -738,7 +849,7 @@
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -747,7 +858,7 @@
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -756,7 +867,7 @@
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -765,7 +876,7 @@
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -774,7 +885,7 @@
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -783,7 +894,7 @@
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -792,7 +903,7 @@
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -801,7 +912,7 @@
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -810,7 +921,7 @@
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -819,7 +930,7 @@
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -828,7 +939,7 @@
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -837,7 +948,7 @@
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -846,7 +957,7 @@
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -855,7 +966,7 @@
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -864,7 +975,7 @@
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -873,7 +984,7 @@
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -882,7 +993,7 @@
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -891,7 +1002,7 @@
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -900,31 +1011,49 @@
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4"/>
+      <c r="A48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4"/>
+      <c r="A49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4"/>
+      <c r="A50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5"/>
+      <c r="A52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5"/>
+      <c r="A53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5"/>
+      <c r="A54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5"/>
@@ -941,8 +1070,17 @@
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Assets/Tables/DT_Frag.xlsx
+++ b/Assets/Tables/DT_Frag.xlsx
@@ -585,7 +585,7 @@
   <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
+      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -606,7 +606,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="b">
+      <c r="B2" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -615,7 +615,7 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="b">
+      <c r="B3" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -624,7 +624,7 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="b">
+      <c r="B4" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -633,7 +633,7 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="b">
+      <c r="B5" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -642,7 +642,7 @@
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="b">
+      <c r="B6" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -651,7 +651,7 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="b">
+      <c r="B7" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -660,7 +660,7 @@
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="b">
+      <c r="B8" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -669,7 +669,7 @@
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="b">
+      <c r="B9" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -678,7 +678,7 @@
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="b">
+      <c r="B10" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -687,7 +687,7 @@
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="b">
+      <c r="B11" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -696,7 +696,7 @@
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="b">
+      <c r="B12" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -705,7 +705,7 @@
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="b">
+      <c r="B13" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -714,7 +714,7 @@
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="b">
+      <c r="B14" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>

--- a/Assets/Tables/DT_Frag.xlsx
+++ b/Assets/Tables/DT_Frag.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t xml:space="preserve">Flag_BlueCloudySolution_Obtained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag_BlueCloudySolution_Trashed</t>
   </si>
   <si>
     <t xml:space="preserve">Flag_RedSolution_Obtained</t>
@@ -368,7 +371,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -383,6 +386,14 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -582,10 +593,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
+      <selection pane="topLeft" activeCell="E53" activeCellId="0" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -768,7 +779,7 @@
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="3" t="b">
+      <c r="B20" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -777,7 +788,7 @@
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3" t="b">
+      <c r="B21" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -786,16 +797,17 @@
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
+      <c r="B22" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -804,7 +816,7 @@
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -813,7 +825,7 @@
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -822,7 +834,7 @@
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -831,7 +843,7 @@
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -840,7 +852,7 @@
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -849,7 +861,7 @@
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -858,7 +870,7 @@
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -867,7 +879,7 @@
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -876,7 +888,7 @@
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -885,7 +897,7 @@
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -894,7 +906,7 @@
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -903,7 +915,7 @@
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -912,7 +924,7 @@
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -921,7 +933,7 @@
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -930,7 +942,7 @@
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -939,7 +951,7 @@
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -948,7 +960,7 @@
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -957,7 +969,7 @@
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -966,16 +978,16 @@
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -984,7 +996,7 @@
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -993,7 +1005,7 @@
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1002,7 +1014,7 @@
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1011,7 +1023,7 @@
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1020,7 +1032,7 @@
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1029,7 +1041,7 @@
       <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1038,49 +1050,58 @@
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4"/>
+      <c r="A51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4"/>
+      <c r="A52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4"/>
+      <c r="A53" s="6"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4"/>
+      <c r="A54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5"/>
+      <c r="A55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5"/>
+      <c r="A56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5"/>
+      <c r="A57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5"/>
+      <c r="A58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5"/>
+      <c r="A59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5"/>
+      <c r="A60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5"/>
+      <c r="A61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A62" s="7"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="7"/>
+    </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Assets/Tables/DT_Frag.xlsx
+++ b/Assets/Tables/DT_Frag.xlsx
@@ -388,7 +388,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -595,8 +595,8 @@
   </sheetPr>
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E53" activeCellId="0" sqref="E53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1059,7 +1059,7 @@
       <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>

--- a/Assets/Tables/DT_Frag.xlsx
+++ b/Assets/Tables/DT_Frag.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -249,6 +249,9 @@
     <t xml:space="preserve">Flag_BlueCloudySolution_Trashed</t>
   </si>
   <si>
+    <t xml:space="preserve">Flag_BlueCloudySolution_Selected</t>
+  </si>
+  <si>
     <t xml:space="preserve">Flag_RedSolution_Obtained</t>
   </si>
   <si>
@@ -261,7 +264,10 @@
     <t xml:space="preserve">Flag_PurpleCloudySolution_Obtained</t>
   </si>
   <si>
-    <t xml:space="preserve">Flag_PurpleClowdySolution_Obtained</t>
+    <t xml:space="preserve">Flag_PurpleCloudySolution_Trashed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag_PurpleCloudySolution_Selected</t>
   </si>
   <si>
     <t xml:space="preserve">Flag_ReagentBottle_Obtained</t>
@@ -593,10 +599,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -779,7 +785,7 @@
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -788,7 +794,7 @@
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -797,7 +803,7 @@
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -807,7 +813,7 @@
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -816,7 +822,7 @@
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -825,7 +831,7 @@
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -834,7 +840,7 @@
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -843,7 +849,7 @@
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -852,7 +858,7 @@
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -861,7 +867,7 @@
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -870,7 +876,7 @@
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -879,7 +885,7 @@
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -888,7 +894,7 @@
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -897,7 +903,7 @@
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -906,7 +912,7 @@
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -915,7 +921,7 @@
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -924,7 +930,7 @@
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -933,7 +939,7 @@
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -942,7 +948,7 @@
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -951,7 +957,7 @@
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -960,7 +966,7 @@
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -969,7 +975,7 @@
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -978,7 +984,7 @@
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -987,16 +993,16 @@
       <c r="A43" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1005,7 +1011,7 @@
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1014,7 +1020,7 @@
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1023,7 +1029,7 @@
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1032,25 +1038,25 @@
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1065,10 +1071,22 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6"/>
+      <c r="A52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6"/>
+      <c r="A53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6"/>
@@ -1077,10 +1095,10 @@
       <c r="A55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7"/>
+      <c r="A56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7"/>
+      <c r="A57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7"/>
@@ -1100,8 +1118,14 @@
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="7"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="7"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Assets/Tables/DT_Frag.xlsx
+++ b/Assets/Tables/DT_Frag.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -103,10 +103,22 @@
     <t xml:space="preserve">Flag_TestTube_Obtained</t>
   </si>
   <si>
+    <t xml:space="preserve">Flag_TestTube_2_Obtained</t>
+  </si>
+  <si>
     <t xml:space="preserve">Flag_TestTube_Selected</t>
   </si>
   <si>
+    <t xml:space="preserve">Flag_TestTube_2_Selected</t>
+  </si>
+  <si>
     <t xml:space="preserve">Flag_TestTube_Set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag_TestTube_Set_first</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag_TestTube_Set_redo</t>
   </si>
   <si>
     <t xml:space="preserve">Flag_Rotor_4h_Obtained</t>
@@ -335,12 +347,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -377,7 +395,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -396,6 +414,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -599,10 +625,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -767,7 +793,7 @@
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3" t="b">
+      <c r="B18" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -776,7 +802,7 @@
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="3" t="b">
+      <c r="B19" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -785,7 +811,7 @@
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -794,7 +820,7 @@
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -803,7 +829,7 @@
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -813,7 +839,7 @@
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -822,7 +848,7 @@
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -831,7 +857,7 @@
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -840,16 +866,16 @@
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -858,16 +884,16 @@
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -876,25 +902,25 @@
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -903,7 +929,7 @@
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -912,7 +938,7 @@
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -921,7 +947,7 @@
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -930,7 +956,7 @@
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -939,7 +965,7 @@
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -948,7 +974,7 @@
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -957,7 +983,7 @@
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -966,7 +992,7 @@
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -975,7 +1001,7 @@
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -984,25 +1010,25 @@
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="3" t="b">
+      <c r="B44" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1011,7 +1037,7 @@
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1020,43 +1046,43 @@
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="3" t="b">
+      <c r="B49" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="3" t="b">
+      <c r="B50" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1065,7 +1091,7 @@
       <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B51" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1074,58 +1100,94 @@
       <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B52" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B53" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6"/>
+      <c r="A54" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6"/>
+      <c r="A55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6"/>
+      <c r="A56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6"/>
+      <c r="A57" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7"/>
+      <c r="A58" s="8"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7"/>
+      <c r="A59" s="8"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7"/>
+      <c r="A60" s="8"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7"/>
+      <c r="A61" s="8"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7"/>
+      <c r="A62" s="9"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7"/>
+      <c r="A63" s="9"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7"/>
+      <c r="A64" s="9"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7"/>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A65" s="9"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="9"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="9"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Assets/Tables/DT_Frag.xlsx
+++ b/Assets/Tables/DT_Frag.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -289,6 +289,12 @@
   </si>
   <si>
     <t xml:space="preserve">Flag_FakeSolution_Obtained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag_Light_On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag_Light_Off</t>
   </si>
 </sst>
 </file>
@@ -627,8 +633,8 @@
   </sheetPr>
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -775,7 +781,7 @@
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3" t="b">
+      <c r="B16" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -784,7 +790,7 @@
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3" t="b">
+      <c r="B17" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1151,10 +1157,22 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="8"/>
+      <c r="A58" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="8"/>
+      <c r="A59" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8"/>

--- a/Assets/Tables/DT_Frag.xlsx
+++ b/Assets/Tables/DT_Frag.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -285,6 +285,9 @@
     <t xml:space="preserve">Flag_ReagentBottle_Obtained</t>
   </si>
   <si>
+    <t xml:space="preserve">Flag_ReagentBottle_Selected</t>
+  </si>
+  <si>
     <t xml:space="preserve">Flag_TipHolder_Obtained</t>
   </si>
   <si>
@@ -295,6 +298,9 @@
   </si>
   <si>
     <t xml:space="preserve">Flag_Light_Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag_teikouyakunazotokikaishimae</t>
   </si>
 </sst>
 </file>
@@ -631,10 +637,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -709,7 +715,7 @@
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="b">
+      <c r="B8" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -718,7 +724,7 @@
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="b">
+      <c r="B9" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -727,7 +733,7 @@
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="b">
+      <c r="B10" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -736,7 +742,7 @@
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="b">
+      <c r="B11" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -745,7 +751,7 @@
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="b">
+      <c r="B12" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -754,7 +760,7 @@
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="b">
+      <c r="B13" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -763,7 +769,7 @@
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="b">
+      <c r="B14" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -772,7 +778,7 @@
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3" t="b">
+      <c r="B15" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1157,7 +1163,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="3" t="n">
@@ -1175,13 +1181,25 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="8"/>
+      <c r="A60" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8"/>
+      <c r="A61" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9"/>
+      <c r="A62" s="8"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9"/>
@@ -1204,8 +1222,11 @@
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9"/>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="9"/>
+    </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
